--- a/public/excel_templates/bin_template.xlsx
+++ b/public/excel_templates/bin_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp8.2\htdocs\MaxVita\public\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F2EDD9-A0E6-46F2-AFEF-AE5CC8A4C6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89ADA791-BAEA-4E96-92CB-B055F4E25FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2388" windowWidth="14724" windowHeight="8880" xr2:uid="{42B227F5-8183-407C-A414-30549251DB25}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{42B227F5-8183-407C-A414-30549251DB25}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>storage_location</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>bin_type</t>
   </si>
 </sst>
 </file>
@@ -427,9 +430,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6609873E-3256-44FC-BD05-9B1747B0DB68}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -437,9 +442,10 @@
     <col min="2" max="2" width="18.77734375" customWidth="1"/>
     <col min="3" max="3" width="26.88671875" customWidth="1"/>
     <col min="4" max="4" width="35.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -447,9 +453,12 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
